--- a/Backend/Model Metrics/metrics_rfc_CAP2_vent.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP2_vent.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8522550544323484</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7457627118644068</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8765060240963856</v>
+        <v>0.863013698630137</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9765100671140939</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8505072923272035</v>
+        <v>0.8776700719758533</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/Model Metrics/metrics_rfc_CAP2_vent.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP2_vent.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8522550544323484</v>
+        <v>0.8491446345256609</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.7288135593220338</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.863013698630137</v>
+        <v>0.8613013698630136</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3467741935483871</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9710982658959537</v>
+        <v>0.9691714836223507</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8776700719758533</v>
+        <v>0.8688472254469468</v>
       </c>
     </row>
   </sheetData>
